--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1846382.567910953</v>
+        <v>1906581.932050805</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903703</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768293</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7348028.277692507</v>
+        <v>7571681.491565133</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>179.2083765321118</v>
+        <v>321.4301361499345</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>62.68223391146824</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>79.35843381149034</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>18.70218818586647</v>
+        <v>378.3793105921425</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>233.3318741648828</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>44.21277235333763</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1138,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>254.7315340961025</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>224.8970394882391</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>98.00339857442903</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1375,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>354.8624710341908</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1430,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>313.6152945295557</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.53944252214</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>165.421695385058</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>329.305143863884</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1619,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>359.0841816924169</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1765,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1813,13 +1815,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>78.30083025286787</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>80.09751710528867</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>269.9562877695847</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1904,10 +1906,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>164.5175082466431</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2014,13 +2016,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>135.8447834840487</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2254,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>115.7710613231398</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2321,19 +2323,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>368.1319780410717</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.96543686894708</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>149.3720965216548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,10 +2563,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2609,13 +2611,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2801,10 +2803,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2855,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>185.0783105344436</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>364.0541325806442</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3083,10 +3085,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3193,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>33.74095660611496</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>217.9067214843363</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>91.8634291666399</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3326,13 +3328,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>334.3658782825033</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>105.0821891886862</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>164.5101087184878</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3506,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>212.4250515358842</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>292.2732044987391</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3661,16 +3663,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1210561135353828</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>183.3275768541986</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>401.5578040935733</v>
       </c>
       <c r="H41" t="n">
-        <v>235.9555392828262</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>250.7071414356083</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>108.4980011689385</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>149.9234094167736</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.206172513730107</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.752026609714</v>
+        <v>1196.018202934688</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.627435922984</v>
+        <v>1189.934016288362</v>
       </c>
       <c r="D2" t="n">
-        <v>728.1635060160443</v>
+        <v>1189.510490421827</v>
       </c>
       <c r="E2" t="n">
-        <v>313.823290532941</v>
+        <v>775.1702749387239</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
         <v>1767.09327468481</v>
@@ -4364,16 +4366,16 @@
         <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.973206274203</v>
+        <v>1202.198978558774</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4409,19 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227551</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.257211227551</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
         <v>1571.411346813777</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555.1290119472964</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C4" t="n">
-        <v>555.1290119472964</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D4" t="n">
-        <v>555.1290119472964</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E4" t="n">
-        <v>555.1290119472964</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4519,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.1290119472964</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1294.272800950781</v>
+        <v>1339.894384246108</v>
       </c>
       <c r="C5" t="n">
-        <v>1288.188614304456</v>
+        <v>929.7697935593784</v>
       </c>
       <c r="D5" t="n">
-        <v>883.7246843975161</v>
+        <v>525.3058636524389</v>
       </c>
       <c r="E5" t="n">
-        <v>469.3844689144128</v>
+        <v>515.0060522097397</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4571,19 +4573,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.493980615271</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.493980615271</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.493980615271</v>
+        <v>1346.075159870194</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784821</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784821</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>377.4895839572943</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1299.499495805762</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1025.613750745284</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1025.613750745284</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>789.9249889625739</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.1892903513386</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>741.1719557267563</v>
+        <v>1963.145600346251</v>
       </c>
       <c r="C8" t="n">
-        <v>331.0473650400264</v>
+        <v>1553.021009659521</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>1148.557079752582</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>734.2168642694783</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>313.1864522231658</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>2806.93771223689</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>3450.568568653995</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>3908.544706422049</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>3558.70715175853</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>3174.946850893698</v>
       </c>
       <c r="X8" t="n">
-        <v>1552.329808443156</v>
+        <v>2774.303453062651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1151.393135391246</v>
+        <v>2373.366780010741</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.8584580678856</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1472.170650357089</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1232.621911333791</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="U10" t="n">
-        <v>949.8237638799155</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="V10" t="n">
-        <v>675.9380188194375</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="W10" t="n">
-        <v>675.9380188194375</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="X10" t="n">
-        <v>437.5941566791208</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.8584580678856</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1702.077069199305</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C11" t="n">
-        <v>1291.952478512575</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D11" t="n">
-        <v>887.4885486056357</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>473.1483331225325</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>473.1483331225325</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3499.769438036078</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2513.234921915704</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2513.234921915704</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2112.298248863794</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1192.782501251911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.782501251911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1418.420178371929</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1418.895201568084</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1179.346462544786</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U13" t="n">
-        <v>896.5483150909101</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V13" t="n">
-        <v>622.6625700304321</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W13" t="n">
-        <v>343.5929055393065</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X13" t="n">
-        <v>343.5929055393065</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.8572069280712</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2045.614349007255</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C14" t="n">
-        <v>1712.982890558888</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.518960651948</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E14" t="n">
-        <v>894.1787451688449</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F14" t="n">
-        <v>473.1483331225325</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G14" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>75.88807306732367</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>770.9554846042632</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1547.274075596017</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2300.455092234635</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2944.08594865174</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2446.257746838303</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2045.614349007255</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>75.88807306732367</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M15" t="n">
-        <v>544.7620862603114</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N15" t="n">
-        <v>1418.420178371929</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>502.7523892892214</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>502.7523892892214</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>502.7523892892214</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>341.8415741575409</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>341.8415741575409</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1094.073744220186</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U16" t="n">
-        <v>1014.981996490016</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V16" t="n">
-        <v>741.096251429538</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W16" t="n">
-        <v>741.096251429538</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="X16" t="n">
-        <v>502.7523892892214</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y16" t="n">
-        <v>502.7523892892214</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5513,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5552,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>886.5906088412762</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>715.4972364029927</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>556.0025917259027</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>395.0917765942222</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>230.4606507048134</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1537.369875986873</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>1537.369875986873</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X19" t="n">
-        <v>1299.026013846556</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y19" t="n">
-        <v>1074.290315235321</v>
+        <v>1348.756849250995</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5780,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5835,7 +5837,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="M21" t="n">
         <v>562.1177108836107</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1420.429410003903</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.250826191383</v>
+        <v>1420.429410003903</v>
       </c>
       <c r="V22" t="n">
-        <v>1436.250826191383</v>
+        <v>1420.429410003903</v>
       </c>
       <c r="W22" t="n">
-        <v>1436.250826191383</v>
+        <v>1141.359745512777</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.250826191383</v>
+        <v>1141.359745512777</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>916.6240469015422</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5971,16 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1692.113136769081</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4222.119838211426</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>4576.912166206539</v>
+        <v>1285.369920613954</v>
       </c>
       <c r="U25" t="n">
-        <v>4576.912166206539</v>
+        <v>1285.369920613954</v>
       </c>
       <c r="V25" t="n">
-        <v>4576.912166206539</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="W25" t="n">
-        <v>4297.842501715413</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="X25" t="n">
-        <v>4297.842501715413</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="Y25" t="n">
-        <v>4297.842501715413</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
         <v>899.2322418529996</v>
@@ -6257,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6406,22 +6408,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="X28" t="n">
         <v>1595.012952997039</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6503,10 +6505,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>749.3736558270855</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C31" t="n">
-        <v>578.280283388802</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D31" t="n">
-        <v>418.7856387117121</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E31" t="n">
-        <v>257.8748235800315</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.756849250995</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W31" t="n">
-        <v>1348.756849250995</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X31" t="n">
-        <v>1161.809060832365</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y31" t="n">
-        <v>937.0733622211299</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>2102.334316433571</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
         <v>1734.602869382415</v>
@@ -6731,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6788,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>607.5209443501507</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C34" t="n">
-        <v>436.4275719118672</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D34" t="n">
-        <v>276.9329272347772</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E34" t="n">
-        <v>276.9329272347772</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W34" t="n">
-        <v>1258.300211495747</v>
+        <v>1157.181161700257</v>
       </c>
       <c r="X34" t="n">
-        <v>1019.95634935543</v>
+        <v>937.0733622211299</v>
       </c>
       <c r="Y34" t="n">
-        <v>795.220650744195</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D35" t="n">
         <v>1734.602869382415</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W35" t="n">
-        <v>3697.79927886809</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X35" t="n">
-        <v>3297.155881037042</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.216283632599</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.216283632599</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>209.5897435862967</v>
+        <v>4011.405617385543</v>
       </c>
       <c r="C37" t="n">
-        <v>209.5897435862967</v>
+        <v>3840.31224494726</v>
       </c>
       <c r="D37" t="n">
-        <v>209.5897435862967</v>
+        <v>3680.81760027017</v>
       </c>
       <c r="E37" t="n">
-        <v>209.5897435862967</v>
+        <v>3519.906785138489</v>
       </c>
       <c r="F37" t="n">
-        <v>209.5897435862967</v>
+        <v>3355.27565924908</v>
       </c>
       <c r="G37" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1270.078999203012</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>987.2808517491358</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>713.3951066886576</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W37" t="n">
-        <v>434.325442197532</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X37" t="n">
-        <v>434.325442197532</v>
+        <v>4423.841022390823</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.5897435862967</v>
+        <v>4199.105323779588</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2144.727460069145</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
         <v>1734.602869382415</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4090.126566144943</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V38" t="n">
-        <v>3740.289011481424</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3356.528710616592</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2955.885312785545</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2554.948639733635</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>3084.569701873628</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>3958.227793985246</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>418.9079176142731</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C40" t="n">
-        <v>418.9079176142731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
         <v>93.2436976906228</v>
@@ -7360,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.756849250995</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W40" t="n">
-        <v>1069.687184759869</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X40" t="n">
-        <v>831.3433226195527</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y40" t="n">
-        <v>606.6076240083174</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1644.677675955345</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C41" t="n">
-        <v>1644.677675955345</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D41" t="n">
-        <v>1644.677675955345</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E41" t="n">
-        <v>1230.337460472242</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F41" t="n">
-        <v>809.3070484259297</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G41" t="n">
-        <v>400.5787643187618</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>162.2398357502505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1259.55553683385</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2035.874127825604</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2789.055144464222</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3432.686000881327</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V41" t="n">
-        <v>2830.018047703134</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W41" t="n">
-        <v>2446.257746838303</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.614349007255</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y41" t="n">
-        <v>1644.677675955345</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>918.8651537618904</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>1792.523245873508</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>834.6339062530867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>834.6339062530867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>834.6339062530867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>673.7230911214062</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>509.0919652319975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>341.8415741575409</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1605.286969688174</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1605.286969688174</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1352.047432884529</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1072.977768393403</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>834.6339062530867</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>834.6339062530867</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2445.484002669858</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2035.359411983129</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1630.895482076189</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.555266593086</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5248545467734</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>386.7965704396057</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2357.143036448109</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3000.773892865214</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3684.809712791498</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3462.603228738357</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U44" t="n">
-        <v>3205.542736997867</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>2855.705182334348</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>2855.705182334348</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2855.705182334348</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2855.705182334348</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>531.6943293326224</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>1192.782501251911</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.782501251911</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.782501251911</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.739591797805</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2585.410216554105</v>
+        <v>689.7852158962135</v>
       </c>
       <c r="C46" t="n">
-        <v>2585.410216554105</v>
+        <v>518.69184345793</v>
       </c>
       <c r="D46" t="n">
-        <v>2425.915571877015</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E46" t="n">
-        <v>2265.004756745334</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F46" t="n">
-        <v>2265.004756745334</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>2265.004756745334</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>2265.004756745334</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>2265.004756745334</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>2279.087306150545</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>2433.639633872783</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>2693.536734152843</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>2982.800790593336</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>3263.639572987587</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>3523.200183314061</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>3728.875623563673</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>3794.403653366184</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>3794.403653366184</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>3794.403653366184</v>
+        <v>1471.204807021803</v>
       </c>
       <c r="T46" t="n">
-        <v>3794.403653366184</v>
+        <v>1471.204807021803</v>
       </c>
       <c r="U46" t="n">
-        <v>3789.144893251305</v>
+        <v>1188.406659567927</v>
       </c>
       <c r="V46" t="n">
-        <v>3515.259148190827</v>
+        <v>914.5209145074488</v>
       </c>
       <c r="W46" t="n">
-        <v>3236.189483699701</v>
+        <v>914.5209145074488</v>
       </c>
       <c r="X46" t="n">
-        <v>2997.845621559385</v>
+        <v>914.5209145074488</v>
       </c>
       <c r="Y46" t="n">
-        <v>2773.109922948149</v>
+        <v>689.7852158962135</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7991,7 +7993,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8058,19 +8060,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>558.5343765177349</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>98.31121191537974</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8219,22 +8221,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>594.2603172363632</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>528.6762761514418</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8453,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421626</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>793.7713764702452</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8535,19 +8537,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>384.4175102257751</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8699,16 +8701,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>346.677814137072</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8769,19 +8771,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>281.1102389695264</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>797.573692544602</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8948,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>194.539943489316</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747686</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9246,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9483,10 +9485,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>529.7246381472005</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10668,13 +10670,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>716.0333888118392</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10686,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10908,13 +10910,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>531.174398074769</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>747.5136431714174</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11075,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11145,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>812.0486393063214</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,16 +11308,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>529.9242198628161</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11379,22 +11381,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>427.0037993558996</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>66.30740332662742</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.2832668079639</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.06664624006493</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>76.71820091597851</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>45.55681957367921</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>201.6693357264692</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>155.8629064136248</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>21.30520108346087</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29.73310367966332</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23947,16 +23949,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>121.3821903099251</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24187,13 +24189,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.8572724611569</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>87.78115511141013</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24449,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24497,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>57.06664624006477</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24664,7 +24666,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24689,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>50.88211298446987</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24971,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.2438580243997</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>18.05370203457713</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>62.56142803888747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>60.49569797502585</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25360,22 +25362,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>72.64314291457708</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>42.06483528720082</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>54.06597461814499</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.7786421167837</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25600,16 +25602,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>92.95139099201577</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.083197172522773</v>
       </c>
       <c r="H41" t="n">
-        <v>71.84387311573298</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>20.43974617426494</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.43026328490166</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26038,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>34.60444102211528</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>274.763993465607</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703419.7757601169</v>
+        <v>712137.098811795</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563930.0242232811</v>
+        <v>637716.6934375354</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>563930.024223281</v>
+        <v>637716.6934375354</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637716.6934375352</v>
+        <v>637716.6934375353</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637716.6934375354</v>
+        <v>637716.6934375352</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637716.6934375354</v>
+        <v>637716.6934375353</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637716.6934375354</v>
+        <v>637716.6934375353</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>563930.0242232808</v>
+        <v>637716.6934375354</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563930.0242232812</v>
+        <v>637716.6934375354</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26316,34 @@
         <v>456070.7004908795</v>
       </c>
       <c r="C2" t="n">
-        <v>456070.7004908795</v>
+        <v>456070.7004908794</v>
       </c>
       <c r="D2" t="n">
         <v>456070.7004908794</v>
       </c>
       <c r="E2" t="n">
-        <v>358596.2769005952</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="F2" t="n">
-        <v>358596.2769005952</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="G2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491312</v>
       </c>
       <c r="H2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491315</v>
       </c>
       <c r="I2" t="n">
         <v>405508.1345491313</v>
       </c>
       <c r="J2" t="n">
+        <v>405508.1345491312</v>
+      </c>
+      <c r="K2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="L2" t="n">
         <v>405508.1345491313</v>
-      </c>
-      <c r="K2" t="n">
-        <v>405508.1345491312</v>
-      </c>
-      <c r="L2" t="n">
-        <v>405508.1345491314</v>
       </c>
       <c r="M2" t="n">
         <v>405508.1345491314</v>
@@ -26350,10 +26352,10 @@
         <v>405508.1345491314</v>
       </c>
       <c r="O2" t="n">
-        <v>358596.2769005953</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="P2" t="n">
-        <v>358596.2769005953</v>
+        <v>405508.1345491313</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>174432.0962319951</v>
+        <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
@@ -26448,16 +26450,16 @@
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="N4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
-        <v>26671.17032028951</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41314.02928727274</v>
+        <v>41314.02928727285</v>
       </c>
       <c r="C6" t="n">
         <v>216269.5391803868</v>
       </c>
       <c r="D6" t="n">
-        <v>216269.5391803868</v>
+        <v>99362.16767814895</v>
       </c>
       <c r="E6" t="n">
-        <v>146895.5042593891</v>
+        <v>277481.3505793405</v>
       </c>
       <c r="F6" t="n">
-        <v>274250.1710491397</v>
+        <v>304450.3047602748</v>
       </c>
       <c r="G6" t="n">
-        <v>244988.8500743129</v>
+        <v>304450.3047602746</v>
       </c>
       <c r="H6" t="n">
-        <v>304450.3047602747</v>
+        <v>304450.3047602749</v>
       </c>
       <c r="I6" t="n">
         <v>304450.3047602747</v>
       </c>
       <c r="J6" t="n">
-        <v>167855.5039543798</v>
+        <v>167855.5039543796</v>
       </c>
       <c r="K6" t="n">
-        <v>304450.3047602746</v>
+        <v>304450.3047602748</v>
       </c>
       <c r="L6" t="n">
-        <v>304450.3047602748</v>
+        <v>164450.993895522</v>
       </c>
       <c r="M6" t="n">
-        <v>198155.4927424001</v>
+        <v>281941.0399862274</v>
       </c>
       <c r="N6" t="n">
         <v>304450.3047602748</v>
       </c>
       <c r="O6" t="n">
-        <v>274250.1710491398</v>
+        <v>304450.3047602747</v>
       </c>
       <c r="P6" t="n">
-        <v>274250.1710491398</v>
+        <v>304450.3047602747</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>237.6117313937375</v>
+        <v>95.38997177591483</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27445,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>123.1404754186357</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27546,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>83.62638081902431</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>398.1179197399828</v>
+        <v>38.44079733370683</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.628549354030667</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>178.2755692717853</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>145.6877565117676</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>179.743961777857</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27907,13 +27909,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>86.52445186445981</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34711,7 +34713,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>500.9700927793176</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>40.55973291537975</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34939,22 +34941,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>500.9700927793178</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>471.1119924130244</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>500.9700927793178</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>700.8590857136259</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>328.3029864149261</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35419,16 +35421,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>256.64400973792</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>227.9168455757764</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>702.0882944817571</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35668,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.425419678467</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363513</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>658.4691050734218</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363516</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>652.0282451085725</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37795,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>758.8552459125715</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,16 +38028,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>436.2748565819319</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38099,22 +38101,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>370.8892755450505</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1906581.932050805</v>
+        <v>1905269.286595226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789205</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>321.4301361499345</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>35.46559899931611</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.68223391146824</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.973453682838</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>77.49735000412008</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>378.3793105921425</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.21277235333763</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>224.8970394882391</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>78.38557391196245</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>354.8624710341908</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1438,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -1545,10 +1545,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.009770138862632</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>359.0841816924169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1669,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>156.8550814710507</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>99.44989698355107</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>80.09751710528867</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.5175082466431</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2016,7 +2016,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>192.9312320650017</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>245.2379843596723</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2134,16 +2134,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>50.61039643672395</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>115.7710613231398</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2374,7 +2374,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>218.0291057078766</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>149.3720965216548</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2572,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2611,13 +2611,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>27.35334490128957</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>128.7560630900391</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>88.37144488016007</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2857,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>351.080144279057</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2961,13 +2961,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>36.01316262753923</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>108.2642464846192</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>61.2952647494452</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3201,13 +3201,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>217.9067214843363</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>91.8634291666399</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3438,7 +3438,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>105.0821891886862</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>204.2402076534349</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>292.2732044987391</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>369.2659961340943</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3663,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>185.1404749231139</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>183.3275768541986</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>401.5578040935733</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>245.2379843596723</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>36.45020302297356</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>393.9842995440077</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -4030,13 +4030,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>117.4784251967216</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>149.9234094167736</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>181.8006211200604</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.018202934688</v>
+        <v>1732.235951192497</v>
       </c>
       <c r="C2" t="n">
-        <v>1189.934016288362</v>
+        <v>1322.111360505768</v>
       </c>
       <c r="D2" t="n">
-        <v>1189.510490421827</v>
+        <v>917.6474305988281</v>
       </c>
       <c r="E2" t="n">
-        <v>775.1702749387239</v>
+        <v>503.3072151157248</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>82.27680306941238</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>77.58892300264863</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>77.58892300264863</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,19 +4333,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="Y2" t="n">
-        <v>1202.198978558774</v>
+        <v>1738.416726816583</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960225</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
-        <v>537.7254774811266</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.0154767040586</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="C4" t="n">
-        <v>209.0154767040586</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D4" t="n">
-        <v>209.0154767040586</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E4" t="n">
-        <v>209.0154767040586</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F4" t="n">
-        <v>209.0154767040586</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1501.493827015262</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1315.102058895172</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1075.553319871874</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="V4" t="n">
-        <v>1014.480089736098</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="W4" t="n">
-        <v>735.4104252449724</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="X4" t="n">
-        <v>497.0665631046558</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.3308644934205</v>
+        <v>792.7551724179984</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1339.894384246108</v>
+        <v>1681.136832804107</v>
       </c>
       <c r="C5" t="n">
-        <v>929.7697935593784</v>
+        <v>1271.012242117377</v>
       </c>
       <c r="D5" t="n">
-        <v>525.3058636524389</v>
+        <v>1192.732090598064</v>
       </c>
       <c r="E5" t="n">
-        <v>515.0060522097397</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
         <v>1767.09327468481</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1346.075159870194</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1346.075159870194</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1346.075159870194</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1346.075159870194</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767164</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1708.850297433489</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1708.850297433489</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433489</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.8584580678856</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>257.5178240813579</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.8584580678856</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1963.145600346251</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1553.021009659521</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1148.557079752582</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>734.2168642694783</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>313.1864522231658</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>86.01772546736876</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736876</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736876</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>624.1772265764083</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1336.768626388646</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2113.0872173804</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
         <v>2806.93771223689</v>
@@ -4837,19 +4837,19 @@
         <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>3908.544706422049</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="V8" t="n">
-        <v>3558.70715175853</v>
+        <v>3815.767643499019</v>
       </c>
       <c r="W8" t="n">
-        <v>3174.946850893698</v>
+        <v>3432.007342634188</v>
       </c>
       <c r="X8" t="n">
-        <v>2774.303453062651</v>
+        <v>3031.36394480314</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.366780010741</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326674</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8439382834442</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8439382834442</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8439382834442</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1175.351575768505</v>
+        <v>1059.005529872831</v>
       </c>
       <c r="C10" t="n">
-        <v>1004.258203330222</v>
+        <v>887.9121574345479</v>
       </c>
       <c r="D10" t="n">
-        <v>844.7635586531319</v>
+        <v>728.4175127574579</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214513</v>
+        <v>567.5066976257774</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320426</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="G10" t="n">
-        <v>351.971226557586</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>1530.143903763618</v>
+        <v>1471.440934878111</v>
       </c>
       <c r="Y10" t="n">
-        <v>1363.05128216255</v>
+        <v>1246.705236266876</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>1537.369875986873</v>
+        <v>824.3798919264852</v>
       </c>
       <c r="X13" t="n">
-        <v>1537.369875986873</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>586.0360297861687</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>423.0977207349383</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>1266.074801429505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>193.6981390881491</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1537.369875986873</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>1537.369875986873</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V16" t="n">
-        <v>1263.484130926395</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.484130926395</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.57754799176</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y16" t="n">
-        <v>1182.57754799176</v>
+        <v>360.9485301626057</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5557,10 +5557,10 @@
         <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>1015.327156917303</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G19" t="n">
         <v>359.19719878084</v>
@@ -5709,16 +5709,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1348.756849250995</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.756849250995</v>
+        <v>1427.762561922582</v>
       </c>
       <c r="X19" t="n">
-        <v>1348.756849250995</v>
+        <v>1427.762561922582</v>
       </c>
       <c r="Y19" t="n">
-        <v>1348.756849250995</v>
+        <v>1203.026863311347</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>562.1177108836107</v>
+        <v>385.2054556740427</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1420.429410003903</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1420.429410003903</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1420.429410003903</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1141.359745512777</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.359745512777</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.6240469015422</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6022,19 +6022,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1285.369920613954</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1285.369920613954</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1011.484175553476</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1011.484175553476</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>1011.484175553476</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>1011.484175553476</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1595.012952997039</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1595.012952997039</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1595.012952997039</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>1595.012952997039</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>1595.012952997039</v>
+        <v>1407.313246602995</v>
       </c>
       <c r="W28" t="n">
-        <v>1595.012952997039</v>
+        <v>1407.313246602995</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>1407.313246602995</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="29">
@@ -6490,19 +6490,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4572.920798793604</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4350.714314740463</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X29" t="n">
         <v>2959.412569640574</v>
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>697.2455944695239</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>697.2455944695239</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>537.7509497924339</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>1160.325155221076</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>1160.325155221076</v>
       </c>
       <c r="X31" t="n">
-        <v>4423.841022390823</v>
+        <v>921.9812930807592</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>697.2455944695239</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F32" t="n">
         <v>899.2322418529996</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.697325272099</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>749.3736558270855</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="C34" t="n">
-        <v>578.280283388802</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D34" t="n">
-        <v>418.7856387117121</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V34" t="n">
-        <v>1436.250826191383</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.181161700257</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X34" t="n">
-        <v>937.0733622211299</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y34" t="n">
-        <v>937.0733622211299</v>
+        <v>913.9039397142094</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6970,19 +6970,19 @@
         <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4011.405617385543</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="C37" t="n">
-        <v>3840.31224494726</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D37" t="n">
-        <v>3680.81760027017</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E37" t="n">
-        <v>3519.906785138489</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F37" t="n">
-        <v>3355.27565924908</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1144.674867812808</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="W37" t="n">
-        <v>4662.18488453114</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="X37" t="n">
-        <v>4423.841022390823</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="Y37" t="n">
-        <v>4199.105323779588</v>
+        <v>861.8767203589325</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.3370701289063</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1163.967527136365</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1163.967527136365</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.295707834299</v>
+        <v>890.0817820758868</v>
       </c>
       <c r="W40" t="n">
-        <v>915.1163372745027</v>
+        <v>890.0817820758868</v>
       </c>
       <c r="X40" t="n">
-        <v>676.772475134186</v>
+        <v>890.0817820758868</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.0367765229507</v>
+        <v>890.0817820758868</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2459.725286714852</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C41" t="n">
-        <v>2049.600696028122</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.136766121183</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E41" t="n">
-        <v>1230.796550638079</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F41" t="n">
-        <v>809.7661385917668</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3671.526537262299</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X41" t="n">
-        <v>3270.883139431251</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2869.946466379341</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>844.5103911440685</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X43" t="n">
-        <v>308.996436142379</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2462.839627293158</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.715036606428</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.251106699488</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G44" t="n">
         <v>404.1521950629048</v>
@@ -7648,10 +7648,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>4058.401178705436</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W44" t="n">
-        <v>3674.640877840605</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X44" t="n">
-        <v>3273.997480009557</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.060806957647</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>916.2303367455215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>916.2303367455215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
         <v>1789.888428857139</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>689.7852158962135</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>518.69184345793</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1471.204807021803</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1471.204807021803</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U46" t="n">
-        <v>1188.406659567927</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V46" t="n">
-        <v>914.5209145074488</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W46" t="n">
-        <v>914.5209145074488</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X46" t="n">
-        <v>914.5209145074488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y46" t="n">
-        <v>689.7852158962135</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7990,13 +7990,13 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574857</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8066,7 +8066,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>558.5343765177349</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8224,13 +8224,13 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>269.8552598673813</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8297,25 +8297,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>500.8626362276487</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>391.1981341283843</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8464,7 +8464,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>793.7713764702452</v>
+        <v>537.0183749876651</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>384.4175102257751</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,16 +8546,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9008,25 +9008,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>194.539943489316</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9485,22 +9485,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>529.7246381472005</v>
+        <v>351.0253904607681</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10430,25 +10430,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10828,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>812.0486393063214</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>427.0037993558996</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>45.55681957367926</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>274.2691977073517</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>45.55681957367921</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>48.66148365904684</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>155.8629064136248</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.30520108346087</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>83.34773578121263</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>62.56142803888687</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>118.7720422771767</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>121.3821903099251</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>87.78115511141013</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.06664624006477</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24660,7 +24660,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>142.3908245198342</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>45.55681957368007</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>45.55681957368</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>235.133724982334</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>108.0871739644555</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>18.05370203457713</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>60.49569797502585</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>32.91304397963006</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25377,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>54.06597461814499</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>10.65670172208877</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>52.01277670995105</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>92.95139099201577</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.083197172522773</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>62.56142803888687</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.8287648232408</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10.65670172208843</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>102.5059940158882</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>34.60444102211528</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637716.6934375354</v>
+        <v>637716.6934375353</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637716.6934375354</v>
+        <v>637716.6934375355</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>637716.6934375353</v>
+        <v>637716.6934375355</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637716.6934375352</v>
+        <v>637716.6934375354</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637716.6934375353</v>
+        <v>637716.6934375352</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637716.6934375354</v>
+        <v>637716.6934375352</v>
       </c>
     </row>
     <row r="13">
@@ -26322,40 +26322,40 @@
         <v>456070.7004908794</v>
       </c>
       <c r="E2" t="n">
+        <v>405508.1345491315</v>
+      </c>
+      <c r="F2" t="n">
+        <v>405508.1345491316</v>
+      </c>
+      <c r="G2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="H2" t="n">
         <v>405508.1345491313</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>405508.1345491314</v>
       </c>
-      <c r="G2" t="n">
-        <v>405508.1345491312</v>
-      </c>
-      <c r="H2" t="n">
-        <v>405508.1345491315</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="K2" t="n">
         <v>405508.1345491313</v>
       </c>
-      <c r="J2" t="n">
-        <v>405508.1345491312</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>405508.1345491314</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>405508.1345491313</v>
-      </c>
-      <c r="M2" t="n">
-        <v>405508.1345491314</v>
       </c>
       <c r="N2" t="n">
         <v>405508.1345491314</v>
       </c>
       <c r="O2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="P2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>85879.9925474617</v>
+        <v>85879.99254746169</v>
       </c>
       <c r="E4" t="n">
         <v>30192.61954398331</v>
@@ -26435,7 +26435,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
@@ -26450,7 +26450,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41314.02928727285</v>
+        <v>41314.02928727274</v>
       </c>
       <c r="C6" t="n">
         <v>216269.5391803868</v>
       </c>
       <c r="D6" t="n">
-        <v>99362.16767814895</v>
+        <v>99362.16767814889</v>
       </c>
       <c r="E6" t="n">
-        <v>277481.3505793405</v>
+        <v>277300.7699866915</v>
       </c>
       <c r="F6" t="n">
-        <v>304450.3047602748</v>
+        <v>304269.7241676258</v>
       </c>
       <c r="G6" t="n">
-        <v>304450.3047602746</v>
+        <v>304269.7241676257</v>
       </c>
       <c r="H6" t="n">
-        <v>304450.3047602749</v>
+        <v>304269.7241676255</v>
       </c>
       <c r="I6" t="n">
-        <v>304450.3047602747</v>
+        <v>304269.7241676257</v>
       </c>
       <c r="J6" t="n">
-        <v>167855.5039543796</v>
+        <v>167674.9233617308</v>
       </c>
       <c r="K6" t="n">
-        <v>304450.3047602748</v>
+        <v>304269.7241676255</v>
       </c>
       <c r="L6" t="n">
-        <v>164450.993895522</v>
+        <v>164270.4133028729</v>
       </c>
       <c r="M6" t="n">
-        <v>281941.0399862274</v>
+        <v>281760.4593935782</v>
       </c>
       <c r="N6" t="n">
-        <v>304450.3047602748</v>
+        <v>304269.7241676257</v>
       </c>
       <c r="O6" t="n">
-        <v>304450.3047602747</v>
+        <v>304269.7241676257</v>
       </c>
       <c r="P6" t="n">
-        <v>304450.3047602747</v>
+        <v>304269.7241676257</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>95.38997177591483</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>50.02264605678145</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.1404754186357</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>15.44653745851635</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>322.9219406037499</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>38.44079733370683</v>
-      </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.2755692717853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>179.743961777857</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>318.5417324094283</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,7 +34701,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>441.8756042977812</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9700927793176</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34944,13 +34944,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.0368534430334</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>338.0047407346343</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35184,7 +35184,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>700.8590857136259</v>
+        <v>444.1060842310458</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>328.3029864149261</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35728,25 +35728,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>138.425419678467</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>473.6101143363514</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>758.8552459125715</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8892755450505</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
